--- a/split-cell-into-rows-excel-power-query-finish.xlsx
+++ b/split-cell-into-rows-excel-power-query-finish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56662A9E-252C-435A-80A5-6F8F86F15DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED1D423-1DB8-46F0-A96C-7B97A5E8F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{E337258D-9CC6-4D9A-BBF9-EB6A3A59FE67}"/>
   </bookViews>
@@ -116,10 +116,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,7 +511,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -555,6 +561,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
